--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.24</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -609,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +678,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +718,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -686,17 +754,21 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -770,6 +770,136 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -905,4 +906,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1038,4 +1039,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1047,7 +1048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,17 +1059,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1078,14 +1099,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1094,14 +1137,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -1110,7 +1241,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1126,13 +1257,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1178,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,17 +1190,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1209,14 +1230,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1225,14 +1268,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -1241,14 +1372,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -1257,7 +1388,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1273,13 +1404,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1309,7 +1310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1320,17 +1321,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1340,14 +1361,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1356,14 +1399,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1372,14 +1503,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -1388,14 +1519,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -1404,7 +1535,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1420,13 +1551,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,203 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -684,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -724,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -760,21 +702,26 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +756,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -849,26 +796,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -892,19 +839,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +886,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -984,21 +931,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1017,26 +964,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1016,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1116,21 +1061,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0865</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1149,24 +1094,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1148,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1241,26 +1188,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1284,19 +1231,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1278,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1371,26 +1318,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1407,26 +1354,21 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1440,144 +1382,202 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.05</v>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -709,19 +726,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -796,22 +813,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -839,12 +856,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -926,22 +943,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0865</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -969,12 +986,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1016,7 +1033,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1061,21 +1078,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1094,26 +1111,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1188,26 +1203,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1226,24 +1241,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1318,26 +1335,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1354,21 +1371,26 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1377,6 +1399,131 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00489-东风集团股份.xlsx
+++ b/数据整理/stocks/港股/00489-东风集团股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +586,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -601,18 +602,240 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +906,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0762</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -726,19 +949,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -813,26 +1036,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -856,19 +1079,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -943,22 +1166,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -986,12 +1209,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1073,22 +1296,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0865</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1116,12 +1339,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1163,7 +1386,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1208,21 +1431,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1241,26 +1464,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1335,26 +1556,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1373,24 +1594,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1465,26 +1688,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1501,21 +1724,26 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1529,53 +1757,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1590,141 +1818,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0390</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.25</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>